--- a/PO/data/loanStats.xlsx
+++ b/PO/data/loanStats.xlsx
@@ -2,51 +2,72 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\PO\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loan_amnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>36 months</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60 months</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>777777777</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>4456</t>
+  </si>
+  <si>
+    <t>36 year</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>888</t>
   </si>
 </sst>
 </file>
@@ -69,12 +90,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,83 +120,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,7 +152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -440,19 +407,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,59 +439,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1077501</v>
+        <v>1077175</v>
       </c>
       <c r="B2">
-        <v>1296599</v>
+        <v>1313524</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>0.1065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>0.15959999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1077175</v>
+        <v>1075358</v>
       </c>
       <c r="B3">
-        <v>1313524</v>
+        <v>1311748</v>
       </c>
       <c r="C3">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.15959999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1075358</v>
+        <v>1075269</v>
       </c>
       <c r="B4">
-        <v>1311748</v>
+        <v>1311441</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.12690000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1075269</v>
       </c>
       <c r="B5">
@@ -533,42 +503,212 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1072053</v>
+        <v>1077175</v>
       </c>
       <c r="B6">
-        <v>1288686</v>
+        <v>1313524</v>
       </c>
       <c r="C6">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.18640000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1071795</v>
+      <c r="E6" s="4">
+        <v>0.15959999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1306957</v>
-      </c>
-      <c r="C7">
-        <v>5600</v>
+        <v>12345</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.21279999999999999</v>
+      <c r="E7" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1311441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1075269</v>
+      </c>
+      <c r="B9">
+        <v>1311441</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1077175</v>
+      </c>
+      <c r="B10">
+        <v>1313524</v>
+      </c>
+      <c r="C10">
+        <v>2400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.15959999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1075358</v>
+      </c>
+      <c r="B11">
+        <v>1311748</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1075269</v>
+      </c>
+      <c r="B12">
+        <v>1311441</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1075269</v>
+      </c>
+      <c r="B13">
+        <v>1311441</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1077175</v>
+      </c>
+      <c r="B14">
+        <v>1313524</v>
+      </c>
+      <c r="C14">
+        <v>2400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.15959999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1075358</v>
+      </c>
+      <c r="B15">
+        <v>1311748</v>
+      </c>
+      <c r="C15">
+        <v>3000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1075269</v>
+      </c>
+      <c r="B16">
+        <v>1311441</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1075269</v>
+      </c>
+      <c r="B17">
+        <v>1311441</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -576,4 +716,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>666</v>
+      </c>
+      <c r="B2">
+        <v>1296599</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1313524</v>
+      </c>
+      <c r="C3">
+        <v>2400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1075358</v>
+      </c>
+      <c r="B4">
+        <v>1311748</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.12690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1075269</v>
+      </c>
+      <c r="B5">
+        <v>1311441</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1072053</v>
+      </c>
+      <c r="B6">
+        <v>1288686</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>66.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1071795</v>
+      </c>
+      <c r="B7">
+        <v>1306957</v>
+      </c>
+      <c r="C7">
+        <v>5600</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.21279999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/PO/data/loanStats.xlsx
+++ b/PO/data/loanStats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -37,37 +37,16 @@
     <t>int_rate</t>
   </si>
   <si>
+    <t>36 year</t>
+  </si>
+  <si>
     <t>36 months</t>
   </si>
   <si>
     <t>60 months</t>
   </si>
   <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>7777</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>777777777</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>4456</t>
-  </si>
-  <si>
-    <t>36 year</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>888</t>
+    <t>60 years</t>
   </si>
 </sst>
 </file>
@@ -99,12 +78,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,12 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +113,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,7 +200,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -410,19 +458,22 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10" style="3" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,277 +490,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1077175</v>
+        <v>1077501</v>
       </c>
       <c r="B2">
-        <v>1313524</v>
+        <v>1296599</v>
       </c>
       <c r="C2">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.15959999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>1.1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1075358</v>
+        <v>1077175</v>
       </c>
       <c r="B3">
-        <v>1311748</v>
+        <v>1313524</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
+        <v>0.15959999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>10725358</v>
+      </c>
+      <c r="B4">
+        <v>1311748</v>
+      </c>
+      <c r="C4">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.12690000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H4" s="5">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1075269</v>
       </c>
-      <c r="B4">
-        <v>1311441</v>
-      </c>
-      <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1075269</v>
-      </c>
-      <c r="B5">
-        <v>1311441</v>
+      <c r="B5" s="5">
+        <v>13114241</v>
       </c>
       <c r="C5">
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1077175</v>
+        <v>1072053</v>
       </c>
       <c r="B6">
-        <v>1313524</v>
-      </c>
-      <c r="C6">
-        <v>2400</v>
+        <v>1288686</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2200</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.15959999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>66.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1071795</v>
       </c>
       <c r="B7">
-        <v>12345</v>
-      </c>
-      <c r="C7" t="s">
+        <v>1306957</v>
+      </c>
+      <c r="C7">
+        <v>5600</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.12690000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1311441</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1075269</v>
-      </c>
-      <c r="B9">
-        <v>1311441</v>
-      </c>
-      <c r="C9">
-        <v>5000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1077175</v>
-      </c>
-      <c r="B10">
-        <v>1313524</v>
-      </c>
-      <c r="C10">
-        <v>2400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.15959999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1075358</v>
-      </c>
-      <c r="B11">
-        <v>1311748</v>
-      </c>
-      <c r="C11">
-        <v>3000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.12690000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1075269</v>
-      </c>
-      <c r="B12">
-        <v>1311441</v>
-      </c>
-      <c r="C12">
-        <v>5000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1075269</v>
-      </c>
-      <c r="B13">
-        <v>1311441</v>
-      </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1077175</v>
-      </c>
-      <c r="B14">
-        <v>1313524</v>
-      </c>
-      <c r="C14">
-        <v>2400</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.15959999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1075358</v>
-      </c>
-      <c r="B15">
-        <v>1311748</v>
-      </c>
-      <c r="C15">
-        <v>3000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.12690000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1075269</v>
-      </c>
-      <c r="B16">
-        <v>1311441</v>
-      </c>
-      <c r="C16">
-        <v>5000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1075269</v>
-      </c>
-      <c r="B17">
-        <v>1311441</v>
-      </c>
-      <c r="C17">
-        <v>5000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>7.9000000000000001E-2</v>
-      </c>
+      <c r="E7" s="2">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -720,21 +608,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -748,13 +637,10 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>666</v>
+        <v>1077501</v>
       </c>
       <c r="B2">
         <v>1296599</v>
@@ -762,16 +648,16 @@
       <c r="C2">
         <v>500</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="4">
         <v>0.1065</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1077175</v>
       </c>
       <c r="B3">
         <v>1313524</v>
@@ -780,17 +666,14 @@
         <v>2400</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.15959999999999999</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1075358</v>
       </c>
       <c r="B4">
@@ -800,47 +683,49 @@
         <v>3000</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.12690000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1075269</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1311441</v>
       </c>
       <c r="C5">
         <v>5000</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1072053</v>
       </c>
       <c r="B6">
         <v>1288686</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>66.64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1071795</v>
       </c>
@@ -850,11 +735,14 @@
       <c r="C7">
         <v>5600</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.21279999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4444</v>
       </c>
     </row>
   </sheetData>

--- a/PO/data/loanStats.xlsx
+++ b/PO/data/loanStats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,11 +469,11 @@
     <col min="1" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1077501</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1.1065</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1077175</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0.15959999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10725358</v>
       </c>
@@ -540,11 +540,8 @@
       <c r="E4" s="2">
         <v>0.12690000000000001</v>
       </c>
-      <c r="H4" s="5">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1075269</v>
       </c>
@@ -564,7 +561,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1072053</v>
       </c>
@@ -581,7 +578,7 @@
         <v>66.64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1071795</v>
       </c>
@@ -597,7 +594,6 @@
       <c r="E7" s="2">
         <v>0.21279999999999999</v>
       </c>
-      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -621,7 +617,7 @@
     <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1077501</v>
       </c>
@@ -655,7 +651,7 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1077175</v>
       </c>
@@ -672,7 +668,7 @@
         <v>0.15959999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1075358</v>
       </c>
@@ -688,9 +684,8 @@
       <c r="E4" s="2">
         <v>0.12690000000000001</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1075269</v>
       </c>
@@ -706,9 +701,8 @@
       <c r="E5" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1072053</v>
       </c>
@@ -725,7 +719,7 @@
         <v>66.64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1071795</v>
       </c>
@@ -740,9 +734,6 @@
       </c>
       <c r="E7" s="2">
         <v>0.21279999999999999</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4444</v>
       </c>
     </row>
   </sheetData>
